--- a/docs/Product Injury Project Plan.xlsx
+++ b/docs/Product Injury Project Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4a41d8b392a254fb/Documents/Career/Portfolio Projects/Product Injury/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="289" documentId="8_{E8B63D1A-810C-4D3B-96AC-8E90604498CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0655A10B-7447-4C77-9493-DC88DFF787EC}"/>
+  <xr:revisionPtr revIDLastSave="304" documentId="8_{E8B63D1A-810C-4D3B-96AC-8E90604498CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7725CBC2-0239-4CC9-8618-DA065D7C8AD6}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{60F2CF9D-D706-4743-AB56-524E50D7B93A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{60F2CF9D-D706-4743-AB56-524E50D7B93A}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Plan" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="69">
   <si>
     <t>Target Date</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Merge datasets</t>
   </si>
   <si>
-    <t>Create database</t>
-  </si>
-  <si>
     <t>Validate and format data</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
   </si>
   <si>
     <t>Validate categorical data</t>
-  </si>
-  <si>
-    <t>Findings</t>
   </si>
   <si>
     <t>Project Close Out</t>
@@ -246,7 +240,16 @@
     <t>Deleted rows in Python</t>
   </si>
   <si>
-    <t>Merged and validate in Python</t>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>Merged and validated in Python</t>
+  </si>
+  <si>
+    <t>Findings / Presentation</t>
+  </si>
+  <si>
+    <t>Review DataPrepCodes notebook</t>
   </si>
 </sst>
 </file>
@@ -335,7 +338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -374,19 +377,15 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -713,57 +712,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721F50A4-4DF4-48F0-866F-DC63206D58F7}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" outlineLevelRow="1" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="60.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" style="4" customWidth="1"/>
-    <col min="3" max="4" width="20.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="45.77734375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="3" width="20.77734375" style="4" customWidth="1"/>
+    <col min="4" max="5" width="20.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="45.77734375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="37.799999999999997" x14ac:dyDescent="1.05">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:7" ht="37.799999999999997" x14ac:dyDescent="1.05">
+      <c r="A1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-    </row>
-    <row r="4" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -773,14 +777,17 @@
       <c r="C4" s="3">
         <v>45310</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="3">
+        <v>45310</v>
+      </c>
+      <c r="E4" s="13">
         <v>1</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="F4" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -790,43 +797,51 @@
       <c r="C5" s="3">
         <v>45310</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="3">
+        <v>45310</v>
+      </c>
+      <c r="E5" s="13">
         <v>1</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="F5" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="3">
         <v>45310</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="13">
+      <c r="C6" s="3">
+        <v>45310</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="13">
         <v>0.5</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="F6" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A8" s="14" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-    </row>
-    <row r="9" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -836,16 +851,19 @@
       <c r="C9" s="3">
         <v>45310</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="3">
+        <v>45310</v>
+      </c>
+      <c r="E9" s="13">
         <v>1</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="F9" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B10" s="3">
         <v>45310</v>
@@ -853,29 +871,34 @@
       <c r="C10" s="3">
         <v>45310</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="3">
+        <v>45310</v>
+      </c>
+      <c r="E10" s="13">
         <v>1</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="F10" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A12" s="14" t="s">
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-    </row>
-    <row r="13" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B13" s="3">
         <v>45310</v>
@@ -883,164 +906,183 @@
       <c r="C13" s="3">
         <v>45310</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="3">
+        <v>45310</v>
+      </c>
+      <c r="E13" s="13">
         <v>1</v>
       </c>
-      <c r="E13" s="18" t="s">
-        <v>60</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+        <v>58</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B14" s="3">
         <v>45310</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="13">
-        <v>0.25</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="C14" s="3">
+        <v>45310</v>
+      </c>
+      <c r="D14" s="3">
+        <v>45315</v>
+      </c>
+      <c r="E14" s="13">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="3">
+        <v>45310</v>
+      </c>
+      <c r="C15" s="3">
+        <v>45310</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="F15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="3">
-        <v>45310</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="E15" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="16" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="1" t="s">
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="A22" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="7" t="s">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="A26" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.5"/>
-    <row r="29" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.5"/>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A30" s="14" t="s">
+    <row r="27" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5"/>
+    <row r="28" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A29" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A30" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A31" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A32" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A36" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A41" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A35" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A36" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A40" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A12:F12"/>
   </mergeCells>
-  <conditionalFormatting sqref="D4:D6">
+  <conditionalFormatting sqref="E4:E6">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -1054,7 +1096,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9:D10">
+  <conditionalFormatting sqref="E9:E10">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -1068,7 +1110,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13:D14">
+  <conditionalFormatting sqref="E13:E14">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -1095,7 +1137,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D4:D6</xm:sqref>
+          <xm:sqref>E4:E6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{93C2CD4F-E211-4020-8A49-CE519DE6D3A5}">
@@ -1106,7 +1148,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D9:D10</xm:sqref>
+          <xm:sqref>E9:E10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{ED4AC874-0797-42DC-A415-F5B009497082}">
@@ -1117,7 +1159,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D13:D14</xm:sqref>
+          <xm:sqref>E13:E14</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1145,30 +1187,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="D1" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="34.799999999999997" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" s="11">
         <v>45302</v>
@@ -1177,32 +1219,32 @@
         <v>45310</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3" s="11">
         <v>45302</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="87" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" s="11">
         <v>45309</v>
@@ -1211,10 +1253,10 @@
         <v>45310</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1248,70 +1290,70 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>30</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>38</v>
+      <c r="A2" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" s="11">
         <v>45302</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C3" s="11">
         <v>45306</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="11">
+        <v>45310</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>64</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="11">
-        <v>45310</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1326,46 +1368,46 @@
     </row>
     <row r="7" spans="1:5" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="11">
         <v>45307</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C8" s="11">
         <v>45307</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9" s="11">
         <v>45307</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" s="11">
         <v>45308</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Product Injury Project Plan.xlsx
+++ b/docs/Product Injury Project Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4a41d8b392a254fb/Documents/Career/Portfolio Projects/Product Injury/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="304" documentId="8_{E8B63D1A-810C-4D3B-96AC-8E90604498CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7725CBC2-0239-4CC9-8618-DA065D7C8AD6}"/>
+  <xr:revisionPtr revIDLastSave="318" documentId="8_{E8B63D1A-810C-4D3B-96AC-8E90604498CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FCF344B-1B1B-4C54-9071-B28A297F2D86}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{60F2CF9D-D706-4743-AB56-524E50D7B93A}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Data Cleanup Log'!$A$1:$E$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Issue Log'!$A$1:$F$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Issue Log'!$A$1:$F$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
   <si>
     <t>Target Date</t>
   </si>
@@ -86,9 +86,6 @@
     <t>Data Preparation</t>
   </si>
   <si>
-    <t>Normalize NEIS data files</t>
-  </si>
-  <si>
     <t>Merge datasets</t>
   </si>
   <si>
@@ -144,9 +141,6 @@
   </si>
   <si>
     <t>What is the Stratum variable in the NEISS 2013 dataset?</t>
-  </si>
-  <si>
-    <t>What is the PSU variable in the NEISS 2013 dataset?</t>
   </si>
   <si>
     <t>Variable Name Consistency</t>
@@ -250,6 +244,9 @@
   </si>
   <si>
     <t>Review DataPrepCodes notebook</t>
+  </si>
+  <si>
+    <t>Imported using MSSM</t>
   </si>
 </sst>
 </file>
@@ -416,9 +413,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -456,7 +453,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -562,7 +559,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -704,7 +701,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -712,11 +709,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721F50A4-4DF4-48F0-866F-DC63206D58F7}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" outlineLevelRow="1" x14ac:dyDescent="0.5"/>
@@ -742,7 +739,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>0</v>
@@ -751,7 +748,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>6</v>
@@ -784,7 +781,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
@@ -804,7 +801,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
@@ -822,7 +819,7 @@
         <v>0.5</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
@@ -858,12 +855,12 @@
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B10" s="3">
         <v>45310</v>
@@ -878,7 +875,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
@@ -898,7 +895,7 @@
     </row>
     <row r="13" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B13" s="3">
         <v>45310</v>
@@ -913,15 +910,15 @@
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B14" s="3">
         <v>45310</v>
@@ -936,12 +933,12 @@
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B15" s="3">
         <v>45310</v>
@@ -949,15 +946,32 @@
       <c r="C15" s="3">
         <v>45310</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3">
+        <v>45319</v>
+      </c>
+      <c r="E15" s="13">
+        <v>1</v>
+      </c>
       <c r="F15" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <v>45319</v>
+      </c>
+      <c r="C16" s="3">
+        <v>45319</v>
+      </c>
+      <c r="D16" s="3">
+        <v>45319</v>
+      </c>
+      <c r="E16" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="B17" s="3"/>
@@ -966,27 +980,24 @@
     </row>
     <row r="18" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="1" t="s">
-        <v>15</v>
+      <c r="A19" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="A20" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="21" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="A21" s="7" t="s">
@@ -998,85 +1009,72 @@
     </row>
     <row r="22" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="A22" s="7" t="s">
-        <v>19</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="A23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="24" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="A24" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5"/>
+    <row r="26" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A27" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A28" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A29" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A33" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A34" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A38" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5"/>
-    <row r="28" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5"/>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A29" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A30" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A31" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A35" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A36" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A40" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A38:F38"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A8:F8"/>
@@ -1110,7 +1108,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E14">
+  <conditionalFormatting sqref="E13:E16">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -1159,7 +1157,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E13:E14</xm:sqref>
+          <xm:sqref>E13:E16</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1169,12 +1167,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E038F5EF-533B-4534-8BD3-18CB9E9F479C}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -1187,30 +1184,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="34.799999999999997" hidden="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="11">
         <v>45302</v>
@@ -1219,54 +1216,34 @@
         <v>45310</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="87" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C3" s="11">
-        <v>45302</v>
+        <v>45309</v>
+      </c>
+      <c r="D3" s="11">
+        <v>45310</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="87" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="F3" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="11">
-        <v>45309</v>
-      </c>
-      <c r="D4" s="11">
-        <v>45310</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>48</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F4" xr:uid="{E038F5EF-533B-4534-8BD3-18CB9E9F479C}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Open"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F3" xr:uid="{E038F5EF-533B-4534-8BD3-18CB9E9F479C}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1290,70 +1267,70 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" s="11">
         <v>45302</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C3" s="11">
         <v>45306</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="11">
+        <v>45310</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>62</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="11">
-        <v>45310</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1368,46 +1345,46 @@
     </row>
     <row r="7" spans="1:5" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7" s="11">
         <v>45307</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C8" s="11">
         <v>45307</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" s="11">
         <v>45307</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C10" s="11">
         <v>45308</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Product Injury Project Plan.xlsx
+++ b/docs/Product Injury Project Plan.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4a41d8b392a254fb/Documents/Career/Portfolio Projects/Product Injury/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="318" documentId="8_{E8B63D1A-810C-4D3B-96AC-8E90604498CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FCF344B-1B1B-4C54-9071-B28A297F2D86}"/>
+  <xr:revisionPtr revIDLastSave="711" documentId="8_{E8B63D1A-810C-4D3B-96AC-8E90604498CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B82D8C9-1778-430D-B5F7-442FD353B26F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{60F2CF9D-D706-4743-AB56-524E50D7B93A}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Plan" sheetId="1" r:id="rId1"/>
-    <sheet name="Issue Log" sheetId="7" r:id="rId2"/>
-    <sheet name="Data Cleanup Log" sheetId="8" r:id="rId3"/>
+    <sheet name="Analysis Checklist" sheetId="9" r:id="rId2"/>
+    <sheet name="Issue Log" sheetId="7" r:id="rId3"/>
+    <sheet name="Data Cleanup Log" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Data Cleanup Log'!$A$1:$E$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Issue Log'!$A$1:$F$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Analysis Checklist'!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Data Cleanup Log'!$A$1:$E$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Issue Log'!$A$1:$F$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="109">
   <si>
     <t>Target Date</t>
   </si>
@@ -65,18 +67,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Project Setup</t>
-  </si>
-  <si>
-    <t>Define goals</t>
-  </si>
-  <si>
-    <t>Identify data sources</t>
-  </si>
-  <si>
-    <t>Setup source control</t>
-  </si>
-  <si>
     <t>Data Collection</t>
   </si>
   <si>
@@ -86,39 +76,9 @@
     <t>Data Preparation</t>
   </si>
   <si>
-    <t>Merge datasets</t>
-  </si>
-  <si>
-    <t>Validate and format data</t>
-  </si>
-  <si>
-    <t>Validate data types</t>
-  </si>
-  <si>
-    <t>Validate date and number formats</t>
-  </si>
-  <si>
-    <t>Check for missing data</t>
-  </si>
-  <si>
-    <t>Check for bad data</t>
-  </si>
-  <si>
-    <t>Check for data outliers</t>
-  </si>
-  <si>
-    <t>Validate categorical data</t>
-  </si>
-  <si>
     <t>Project Close Out</t>
   </si>
   <si>
-    <t>Statistical anaysis</t>
-  </si>
-  <si>
-    <t>Descriptive analysis</t>
-  </si>
-  <si>
     <t>Issue</t>
   </si>
   <si>
@@ -134,15 +94,9 @@
     <t>Issue Type</t>
   </si>
   <si>
-    <t>Data</t>
-  </si>
-  <si>
     <t>Open</t>
   </si>
   <si>
-    <t>What is the Stratum variable in the NEISS 2013 dataset?</t>
-  </si>
-  <si>
     <t>Variable Name Consistency</t>
   </si>
   <si>
@@ -165,12 +119,6 @@
   </si>
   <si>
     <t>% Complete</t>
-  </si>
-  <si>
-    <t>Documented in PowerPoint</t>
-  </si>
-  <si>
-    <t>NEISS data - www.cpsc.gov</t>
   </si>
   <si>
     <t>Cannot read neiss2020, neis2021, or neis2022 Excel files. The folowing error is produced:
@@ -186,15 +134,9 @@
     <t>Resolved this issue for each file by copying the data to a new Excel file.</t>
   </si>
   <si>
-    <t>GitHub - /tamimcm416/product_injury</t>
-  </si>
-  <si>
     <t>Excel files from 2013 - 2022</t>
   </si>
   <si>
-    <t>Very Large, Large, Medium, Small, Children's</t>
-  </si>
-  <si>
     <t>Updated column names in MSSM using the Design feature</t>
   </si>
   <si>
@@ -213,9 +155,6 @@
     <t>Load scrubbed codes and labels to Azure SQL</t>
   </si>
   <si>
-    <t>Validated manually by comparing Design Diagrams created in SSMS. Discrepancies reported in Data Cleanup Log</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -237,9 +176,6 @@
     <t>Start Date</t>
   </si>
   <si>
-    <t>Merged and validated in Python</t>
-  </si>
-  <si>
     <t>Findings / Presentation</t>
   </si>
   <si>
@@ -247,6 +183,395 @@
   </si>
   <si>
     <t>Imported using MSSM</t>
+  </si>
+  <si>
+    <t>Python Notebook - DataPrepCodes</t>
+  </si>
+  <si>
+    <t>Python Notebook - DataPrepInjuries</t>
+  </si>
+  <si>
+    <t>Validated Manually in MSSM</t>
+  </si>
+  <si>
+    <t>Validate and merge injury datasets</t>
+  </si>
+  <si>
+    <t>Distribution of injuries by product</t>
+  </si>
+  <si>
+    <t>Number of products tracked</t>
+  </si>
+  <si>
+    <t>Metric / Report / Graph</t>
+  </si>
+  <si>
+    <t># of Product Tracked</t>
+  </si>
+  <si>
+    <t>Define objectives</t>
+  </si>
+  <si>
+    <t>Gather background information</t>
+  </si>
+  <si>
+    <t>https://graduate.northeastern.edu/resources/data-analysis-project-lifecycle/</t>
+  </si>
+  <si>
+    <t>Collect data</t>
+  </si>
+  <si>
+    <t>Project plan based on CRISP-DM Methodology, as described by Northeastern University</t>
+  </si>
+  <si>
+    <t>Load data</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Deliverable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>: Source control project setup</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Deliverable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>: Published dataset ready for prep/cleaning</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Deliverable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>: Documentation of work completed and findings</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Deliverable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>: Project overview documentation</t>
+    </r>
+  </si>
+  <si>
+    <t>Handle missing data</t>
+  </si>
+  <si>
+    <t>Remove duplicate data</t>
+  </si>
+  <si>
+    <t>Look for and cleanup miscoded data</t>
+  </si>
+  <si>
+    <t>Verify data integrity and check for outliers</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Deliverable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>: Published dataset ready for EDA</t>
+    </r>
+  </si>
+  <si>
+    <t>Exploratory Data Analysis</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Deliverable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>: Checklist of questions to be explored</t>
+    </r>
+  </si>
+  <si>
+    <t>Data Visualizations</t>
+  </si>
+  <si>
+    <t>Review findings</t>
+  </si>
+  <si>
+    <t>Validate process</t>
+  </si>
+  <si>
+    <t>Validate data</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Deliverable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>: Review objectives - is more work needed?</t>
+    </r>
+  </si>
+  <si>
+    <t>Visualization and Presentation</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Deliverable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>: Final visualizations</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Deliverable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>: Final presentation</t>
+    </r>
+  </si>
+  <si>
+    <t>Craft a compling story</t>
+  </si>
+  <si>
+    <t>Document recommendations</t>
+  </si>
+  <si>
+    <t>Project Closeout</t>
+  </si>
+  <si>
+    <t>Validation and QA</t>
+  </si>
+  <si>
+    <t>Review all past deliverables for clarity and consistency</t>
+  </si>
+  <si>
+    <t>Check-in all final code and documentations</t>
+  </si>
+  <si>
+    <t>Publish project assets and findings as appropriate</t>
+  </si>
+  <si>
+    <t>Define scope of work</t>
+  </si>
+  <si>
+    <t>Define deliverables</t>
+  </si>
+  <si>
+    <t>Captured in project plan</t>
+  </si>
+  <si>
+    <t>Captured in presentation slides</t>
+  </si>
+  <si>
+    <t>Captured in presentation slides (appendix)</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Deliverable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>: Document data source(s)</t>
+    </r>
+  </si>
+  <si>
+    <t>Understand Business</t>
+  </si>
+  <si>
+    <t>Understand Data</t>
+  </si>
+  <si>
+    <t>Preview data</t>
+  </si>
+  <si>
+    <t>Indentify and describe variables</t>
+  </si>
+  <si>
+    <t>Remove irrelevant variables</t>
+  </si>
+  <si>
+    <t>Rename variables for clarity</t>
+  </si>
+  <si>
+    <t>Update datatypes and formats as needed</t>
+  </si>
+  <si>
+    <t>Warninng reading Data Dictionary</t>
+  </si>
+  <si>
+    <t>Cleared print area in Excel and saved file</t>
+  </si>
+  <si>
+    <t>Injury data</t>
+  </si>
+  <si>
+    <t>Jupyter notebook - DataPrepCodes</t>
+  </si>
+  <si>
+    <t>Identify and describe variables</t>
+  </si>
+  <si>
+    <t>Delete NaN rows and columns</t>
+  </si>
+  <si>
+    <t>Codes / Lookup Table</t>
+  </si>
+  <si>
+    <t>Injury Data</t>
+  </si>
+  <si>
+    <t>Save to Excel</t>
   </si>
 </sst>
 </file>
@@ -256,7 +581,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,8 +626,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Meiryo"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Meiryo"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Meiryo"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,6 +694,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -331,11 +710,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -352,9 +732,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -377,14 +754,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -709,379 +1109,1007 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721F50A4-4DF4-48F0-866F-DC63206D58F7}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD18"/>
+      <pane ySplit="3" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" outlineLevelRow="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="60.77734375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="20.77734375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="75.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" style="4" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" style="4" customWidth="1"/>
     <col min="4" max="5" width="20.77734375" style="1" customWidth="1"/>
     <col min="6" max="6" width="45.77734375" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="37.799999999999997" x14ac:dyDescent="1.05">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+    </row>
+    <row r="2" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="3">
+        <v>45323</v>
+      </c>
+      <c r="E5" s="12">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="3">
+        <v>45323</v>
+      </c>
+      <c r="E6" s="12">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="3">
+        <v>45323</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="3">
+        <v>45323</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="3">
+        <v>45323</v>
+      </c>
+      <c r="E9" s="12">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A3" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-    </row>
-    <row r="4" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3">
-        <v>45310</v>
-      </c>
-      <c r="C4" s="3">
-        <v>45310</v>
-      </c>
-      <c r="D4" s="3">
-        <v>45310</v>
-      </c>
-      <c r="E4" s="13">
+      <c r="F9" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A11" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3">
+        <v>45327</v>
+      </c>
+      <c r="E12" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3">
-        <v>45310</v>
-      </c>
-      <c r="C5" s="3">
-        <v>45310</v>
-      </c>
-      <c r="D5" s="3">
-        <v>45310</v>
-      </c>
-      <c r="E5" s="13">
+      <c r="F12" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3">
+        <v>45323</v>
+      </c>
+      <c r="E13" s="12">
         <v>1</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3">
-        <v>45310</v>
-      </c>
-      <c r="C6" s="3">
-        <v>45310</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A8" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-    </row>
-    <row r="9" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="3">
-        <v>45310</v>
-      </c>
-      <c r="C9" s="3">
-        <v>45310</v>
-      </c>
-      <c r="D9" s="3">
-        <v>45310</v>
-      </c>
-      <c r="E9" s="13">
+    </row>
+    <row r="14" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3">
+        <v>45323</v>
+      </c>
+      <c r="E14" s="12">
         <v>1</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="3">
-        <v>45310</v>
-      </c>
-      <c r="C10" s="3">
-        <v>45310</v>
-      </c>
-      <c r="D10" s="3">
-        <v>45310</v>
-      </c>
-      <c r="E10" s="13">
+    </row>
+    <row r="15" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3">
+        <v>45323</v>
+      </c>
+      <c r="E15" s="12">
         <v>1</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A12" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="3">
-        <v>45310</v>
-      </c>
-      <c r="C13" s="3">
-        <v>45310</v>
-      </c>
-      <c r="D13" s="3">
-        <v>45310</v>
-      </c>
-      <c r="E13" s="13">
+    </row>
+    <row r="16" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3">
+        <v>45323</v>
+      </c>
+      <c r="E16" s="12">
         <v>1</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="3">
-        <v>45310</v>
-      </c>
-      <c r="C14" s="3">
-        <v>45310</v>
-      </c>
-      <c r="D14" s="3">
-        <v>45315</v>
-      </c>
-      <c r="E14" s="13">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="3">
-        <v>45310</v>
-      </c>
-      <c r="C15" s="3">
-        <v>45310</v>
-      </c>
-      <c r="D15" s="3">
-        <v>45319</v>
-      </c>
-      <c r="E15" s="13">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3">
-        <v>45319</v>
-      </c>
-      <c r="C16" s="3">
-        <v>45319</v>
-      </c>
-      <c r="D16" s="3">
-        <v>45319</v>
-      </c>
-      <c r="E16" s="13">
-        <v>1</v>
-      </c>
     </row>
     <row r="17" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="15" t="s">
+        <v>104</v>
+      </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3">
+        <v>45323</v>
+      </c>
+      <c r="E17" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="1" t="s">
-        <v>15</v>
+      <c r="A18" s="15" t="s">
+        <v>97</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="D18" s="3">
+        <v>45323</v>
+      </c>
+      <c r="E18" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="7" t="s">
-        <v>16</v>
+      <c r="A19" s="15" t="s">
+        <v>98</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="D19" s="3">
+        <v>45323</v>
+      </c>
+      <c r="E19" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="7" t="s">
-        <v>18</v>
+      <c r="A20" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3">
+        <v>45327</v>
+      </c>
+      <c r="E20" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="7" t="s">
-        <v>17</v>
+      <c r="A21" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="A22" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
       <c r="D22" s="3"/>
+      <c r="E22" s="12"/>
     </row>
     <row r="23" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="A23" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="12"/>
     </row>
     <row r="24" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5"/>
-    <row r="26" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5"/>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A24" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="12"/>
+    </row>
+    <row r="25" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="A27" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="12"/>
+    </row>
+    <row r="28" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="12"/>
+    </row>
+    <row r="29" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3">
+        <v>45323</v>
+      </c>
+      <c r="E29" s="12">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A30" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A31" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="16"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A34" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+    </row>
+    <row r="35" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A35" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3">
+        <v>45327</v>
+      </c>
+      <c r="E35" s="12">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A36" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3">
+        <v>45327</v>
+      </c>
+      <c r="E36" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A37" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3">
+        <v>45327</v>
+      </c>
+      <c r="E37" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A38" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3">
+        <v>45327</v>
+      </c>
+      <c r="E38" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3">
+        <v>45327</v>
+      </c>
+      <c r="E39" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A40" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="12"/>
+    </row>
+    <row r="41" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A41" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="12"/>
+    </row>
+    <row r="42" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A42" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="12"/>
+    </row>
+    <row r="43" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A43" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="12"/>
+    </row>
+    <row r="44" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A44" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="12"/>
+    </row>
+    <row r="45" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A45" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="12"/>
+    </row>
+    <row r="46" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A46" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A47" s="16"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="4"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A48" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+    </row>
+    <row r="49" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A49" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="12"/>
+    </row>
+    <row r="50" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A50" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="12"/>
+    </row>
+    <row r="51" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A51" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="12"/>
+    </row>
+    <row r="52" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A52" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="4"/>
+    </row>
+    <row r="53" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A53" s="16"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="4"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A54" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+    </row>
+    <row r="55" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A55" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="4"/>
+    </row>
+    <row r="56" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="4"/>
+    </row>
+    <row r="57" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A57" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="4"/>
+    </row>
+    <row r="58" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A58" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="4"/>
+    </row>
+    <row r="59" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A59" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="4"/>
+    </row>
+    <row r="60" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A60" s="16"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="4"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A61" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+    </row>
+    <row r="62" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A62" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="4"/>
+    </row>
+    <row r="63" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A63" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="4"/>
+    </row>
+    <row r="64" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A64" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="4"/>
+    </row>
+    <row r="65" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A65" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="4"/>
+    </row>
+    <row r="66" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A66" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="4"/>
+    </row>
+    <row r="67" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A67" s="16"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="4"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A68" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+    </row>
+    <row r="69" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A69" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="4"/>
+    </row>
+    <row r="70" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A70" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="4"/>
+    </row>
+    <row r="71" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A71" s="15"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="4"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A72" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+    </row>
+    <row r="73" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="3">
+        <v>45310</v>
+      </c>
+      <c r="C73" s="3">
+        <v>45310</v>
+      </c>
+      <c r="D73" s="3">
+        <v>45310</v>
+      </c>
+      <c r="E73" s="12">
+        <v>1</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A74" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B74" s="3">
+        <v>45310</v>
+      </c>
+      <c r="C74" s="3">
+        <v>45310</v>
+      </c>
+      <c r="D74" s="3">
+        <v>45310</v>
+      </c>
+      <c r="E74" s="12">
+        <v>1</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A76" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+    </row>
+    <row r="77" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B77" s="3">
+        <v>45310</v>
+      </c>
+      <c r="C77" s="3">
+        <v>45310</v>
+      </c>
+      <c r="D77" s="3">
+        <v>45310</v>
+      </c>
+      <c r="E77" s="12">
+        <v>1</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A78" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B78" s="3">
+        <v>45310</v>
+      </c>
+      <c r="C78" s="3">
+        <v>45310</v>
+      </c>
+      <c r="D78" s="3">
+        <v>45315</v>
+      </c>
+      <c r="E78" s="12">
+        <v>1</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A79" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B79" s="3">
+        <v>45310</v>
+      </c>
+      <c r="C79" s="3">
+        <v>45310</v>
+      </c>
+      <c r="D79" s="3">
+        <v>45319</v>
+      </c>
+      <c r="E79" s="12">
+        <v>1</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A80" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B80" s="3">
+        <v>45319</v>
+      </c>
+      <c r="C80" s="3">
+        <v>45319</v>
+      </c>
+      <c r="D80" s="3"/>
+      <c r="E80" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A81" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="F81" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5"/>
+    <row r="83" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5"/>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A84" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A28" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A29" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A33" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A34" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A38" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A85" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A86" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A90" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B90" s="18"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A91" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A95" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B95" s="18"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="18"/>
+      <c r="E95" s="18"/>
+      <c r="F95" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A12:F12"/>
+  <mergeCells count="15">
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="A76:F76"/>
   </mergeCells>
-  <conditionalFormatting sqref="E4:E6">
-    <cfRule type="dataBar" priority="3">
+  <conditionalFormatting sqref="E5:E10">
+    <cfRule type="dataBar" priority="31">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1089,13 +2117,139 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FCB5B2D7-DF6C-48DB-A524-DAD93B004797}</x14:id>
+          <x14:id>{252B16C1-FA6C-4E5A-AB86-654CE1042E2C}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E9:E10">
-    <cfRule type="dataBar" priority="2">
+  <conditionalFormatting sqref="E12">
+    <cfRule type="dataBar" priority="35">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D7DF087E-5B73-44D5-9716-CF190F88DA55}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E3763A2B-133C-4ED1-9AAD-35C77E0C3AA1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DFDBA5A7-5D63-4E55-A587-936DEA7D1444}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15:E20">
+    <cfRule type="dataBar" priority="39">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{97C4EE4D-8600-4593-966D-1F6695917CF7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22:E25">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D187F4B5-8CC2-4616-8B98-E5271F293241}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:E28">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{32CE492C-A26A-429A-8C6C-3896C6B9CA32}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="dataBar" priority="14">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A9F23484-3C8B-4BEC-966D-EEADB136B5DB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41:E45 E35:E39">
+    <cfRule type="dataBar" priority="25">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1A46510E-FF34-4195-87D6-BBE0A2B37AB1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49:E51">
+    <cfRule type="dataBar" priority="29">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{82734EEA-B87A-4FF1-9956-9080B14DC5CE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73:E74">
+    <cfRule type="dataBar" priority="20">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1108,8 +2262,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E16">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="E77:E80">
+    <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1122,12 +2276,29 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5090FFE8-A0D9-48D6-BED4-E1DCDE51A8CF}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{CE8D26B1-DE41-43C1-AACB-8874D5E59AA8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FCB5B2D7-DF6C-48DB-A524-DAD93B004797}">
+          <x14:cfRule type="dataBar" id="{252B16C1-FA6C-4E5A-AB86-654CE1042E2C}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1135,7 +2306,106 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E4:E6</xm:sqref>
+          <xm:sqref>E5:E10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D7DF087E-5B73-44D5-9716-CF190F88DA55}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E3763A2B-133C-4ED1-9AAD-35C77E0C3AA1}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DFDBA5A7-5D63-4E55-A587-936DEA7D1444}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{97C4EE4D-8600-4593-966D-1F6695917CF7}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E15:E20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D187F4B5-8CC2-4616-8B98-E5271F293241}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E22:E25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{32CE492C-A26A-429A-8C6C-3896C6B9CA32}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E27:E28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A9F23484-3C8B-4BEC-966D-EEADB136B5DB}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1A46510E-FF34-4195-87D6-BBE0A2B37AB1}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E41:E45 E35:E39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{82734EEA-B87A-4FF1-9956-9080B14DC5CE}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E49:E51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{93C2CD4F-E211-4020-8A49-CE519DE6D3A5}">
@@ -1146,7 +2416,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E9:E10</xm:sqref>
+          <xm:sqref>E73:E74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{ED4AC874-0797-42DC-A415-F5B009497082}">
@@ -1157,7 +2427,18 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E13:E16</xm:sqref>
+          <xm:sqref>E77:E80</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5090FFE8-A0D9-48D6-BED4-E1DCDE51A8CF}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E40</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1166,12 +2447,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3443A1-FF14-4D53-B0FD-A00427728C1F}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="60.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B1" xr:uid="{AE3443A1-FF14-4D53-B0FD-A00427728C1F}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E038F5EF-533B-4534-8BD3-18CB9E9F479C}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -1183,72 +2498,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="87" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="10">
+        <v>45309</v>
+      </c>
+      <c r="D2" s="10">
+        <v>45310</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="F2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="8" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="11">
-        <v>45302</v>
-      </c>
-      <c r="D2" s="11">
-        <v>45310</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="87" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="11">
-        <v>45309</v>
-      </c>
-      <c r="D3" s="11">
-        <v>45310</v>
+      <c r="C3" s="10">
+        <v>45324</v>
+      </c>
+      <c r="D3" s="10">
+        <v>45324</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>46</v>
+        <v>27</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F3" xr:uid="{E038F5EF-533B-4534-8BD3-18CB9E9F479C}"/>
+  <autoFilter ref="A1:F2" xr:uid="{E038F5EF-533B-4534-8BD3-18CB9E9F479C}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C277720F-2ABD-41CD-9089-375826643936}">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1266,125 +2581,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="A1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="10">
+        <v>45302</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="11">
-        <v>45302</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>50</v>
+      <c r="E2" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>58</v>
+      <c r="A3" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="11">
+        <v>19</v>
+      </c>
+      <c r="C3" s="10">
         <v>45306</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>59</v>
+        <v>27</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>60</v>
+      <c r="A4" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="11">
+        <v>40</v>
+      </c>
+      <c r="C4" s="10">
         <v>45310</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>62</v>
+        <v>27</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="E5" s="10"/>
+      <c r="A5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
     </row>
     <row r="7" spans="1:5" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="11">
+      <c r="A7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="10">
         <v>45307</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="11">
+      <c r="A8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="10">
         <v>45307</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="11">
+        <v>22</v>
+      </c>
+      <c r="C9" s="10">
         <v>45307</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="11">
+      <c r="A10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="10">
         <v>45308</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Product Injury Project Plan.xlsx
+++ b/docs/Product Injury Project Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4a41d8b392a254fb/Documents/Career/Portfolio Projects/Product Injury/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="711" documentId="8_{E8B63D1A-810C-4D3B-96AC-8E90604498CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B82D8C9-1778-430D-B5F7-442FD353B26F}"/>
+  <xr:revisionPtr revIDLastSave="746" documentId="8_{E8B63D1A-810C-4D3B-96AC-8E90604498CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42CA981C-6F3B-4639-8C38-4C9909CDB005}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{60F2CF9D-D706-4743-AB56-524E50D7B93A}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="116">
   <si>
     <t>Target Date</t>
   </si>
@@ -269,29 +269,6 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>: Published dataset ready for prep/cleaning</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>Deliverable</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
       <t>: Documentation of work completed and findings</t>
     </r>
   </si>
@@ -572,6 +549,30 @@
   </si>
   <si>
     <t>Save to Excel</t>
+  </si>
+  <si>
+    <t>Save to CSV</t>
+  </si>
+  <si>
+    <t>Number of injuries</t>
+  </si>
+  <si>
+    <t>Type and severity of injuries</t>
+  </si>
+  <si>
+    <t>Patient demograhics</t>
+  </si>
+  <si>
+    <t>Products involved</t>
+  </si>
+  <si>
+    <t>Hospital characteristics</t>
+  </si>
+  <si>
+    <t>Review injury data methodology</t>
+  </si>
+  <si>
+    <t>Statistical analysis</t>
   </si>
 </sst>
 </file>
@@ -715,7 +716,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -764,9 +765,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -780,6 +778,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1109,11 +1113,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721F50A4-4DF4-48F0-866F-DC63206D58F7}">
-  <dimension ref="A1:G95"/>
+  <dimension ref="A1:G107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" outlineLevelRow="1" x14ac:dyDescent="0.5"/>
@@ -1127,26 +1131,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="19" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" s="5" t="s">
@@ -1170,7 +1174,7 @@
     </row>
     <row r="4" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="A4" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -1184,7 +1188,7 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D5" s="3">
         <v>45323</v>
@@ -1193,16 +1197,16 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6" s="3">
         <v>45323</v>
@@ -1211,16 +1215,16 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7" s="3">
         <v>45323</v>
@@ -1229,7 +1233,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
@@ -1238,7 +1242,7 @@
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8" s="3">
         <v>45323</v>
@@ -1247,16 +1251,16 @@
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9" s="3">
         <v>45323</v>
@@ -1265,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
@@ -1276,7 +1280,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
@@ -1285,37 +1289,33 @@
       <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="1" t="s">
-        <v>106</v>
+      <c r="A12" s="24" t="s">
+        <v>114</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="3">
-        <v>45327</v>
-      </c>
-      <c r="E12" s="12">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="15" t="s">
-        <v>57</v>
+      <c r="A13" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3">
-        <v>45323</v>
+        <v>45327</v>
       </c>
       <c r="E13" s="12">
         <v>1</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="A14" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="15" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="A15" s="15" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1341,7 +1341,7 @@
     </row>
     <row r="16" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="A16" s="15" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="18" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="A18" s="15" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="19" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="A19" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1393,117 +1393,149 @@
     </row>
     <row r="20" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="A20" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3">
-        <v>45327</v>
+        <v>45323</v>
       </c>
       <c r="E20" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="1" t="s">
-        <v>102</v>
+      <c r="A21" s="15" t="s">
+        <v>98</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="4"/>
+      <c r="D21" s="3">
+        <v>45327</v>
+      </c>
+      <c r="E21" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="15" t="s">
-        <v>57</v>
+      <c r="A22" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="12"/>
+      <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="A23" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="12"/>
+      <c r="D23" s="3">
+        <v>45328</v>
+      </c>
+      <c r="E23" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="A24" s="15" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="12"/>
+      <c r="D24" s="3">
+        <v>45328</v>
+      </c>
+      <c r="E24" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="A25" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="12"/>
+      <c r="D25" s="3">
+        <v>45328</v>
+      </c>
+      <c r="E25" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="A26" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="4"/>
+      <c r="D26" s="3">
+        <v>45328</v>
+      </c>
+      <c r="E26" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="A27" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="12"/>
+      <c r="D27" s="3">
+        <v>45328</v>
+      </c>
+      <c r="E27" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="A28" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="12"/>
+      <c r="D28" s="3">
+        <v>45328</v>
+      </c>
+      <c r="E28" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="16" t="s">
-        <v>92</v>
+      <c r="A29" s="15" t="s">
+        <v>98</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3">
-        <v>45323</v>
+        <v>45328</v>
       </c>
       <c r="E29" s="12">
         <v>1</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="A30" s="16" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="4"/>
+      <c r="D30" s="3">
+        <v>45323</v>
+      </c>
+      <c r="E30" s="12">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="31" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="A31" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1512,7 +1544,7 @@
     </row>
     <row r="32" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="A32" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1538,7 +1570,7 @@
     </row>
     <row r="35" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="A35" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1549,12 +1581,12 @@
         <v>1</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="A36" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1580,7 +1612,7 @@
     </row>
     <row r="38" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="A38" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1593,7 +1625,7 @@
     </row>
     <row r="39" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="A39" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1606,7 +1638,7 @@
     </row>
     <row r="40" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="A40" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1615,12 +1647,16 @@
     </row>
     <row r="41" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="A41" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="12"/>
+      <c r="D41" s="3">
+        <v>45328</v>
+      </c>
+      <c r="E41" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="A42" s="15" t="s">
@@ -1628,12 +1664,16 @@
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="12"/>
+      <c r="D42" s="3">
+        <v>45328</v>
+      </c>
+      <c r="E42" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="A43" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1642,7 +1682,7 @@
     </row>
     <row r="44" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="A44" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1650,8 +1690,8 @@
       <c r="E44" s="12"/>
     </row>
     <row r="45" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="A45" s="16" t="s">
-        <v>68</v>
+      <c r="A45" s="15" t="s">
+        <v>108</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -1660,42 +1700,42 @@
     </row>
     <row r="46" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="A46" s="16" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
-      <c r="E46" s="4"/>
+      <c r="E46" s="12"/>
     </row>
     <row r="47" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="A47" s="16"/>
+      <c r="A47" s="16" t="s">
+        <v>61</v>
+      </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="4"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A48" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-    </row>
-    <row r="49" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="A49" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="12"/>
+    <row r="48" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="16"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="4"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A49" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
     </row>
     <row r="50" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="A50" s="1" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -1703,410 +1743,503 @@
       <c r="E50" s="12"/>
     </row>
     <row r="51" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="A51" s="16" t="s">
-        <v>70</v>
-      </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="12"/>
     </row>
     <row r="52" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="A52" s="16" t="s">
-        <v>62</v>
-      </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
-      <c r="E52" s="4"/>
+      <c r="E52" s="12"/>
     </row>
     <row r="53" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="A53" s="16"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
-      <c r="E53" s="4"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A54" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
+      <c r="E53" s="12"/>
+    </row>
+    <row r="54" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="12"/>
     </row>
     <row r="55" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="A55" s="16" t="s">
-        <v>72</v>
+      <c r="A55" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
-      <c r="E55" s="4"/>
+      <c r="E55" s="12"/>
     </row>
     <row r="56" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="16" t="s">
-        <v>73</v>
+      <c r="A56" s="15" t="s">
+        <v>109</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
-      <c r="E56" s="4"/>
+      <c r="E56" s="12"/>
     </row>
     <row r="57" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="A57" s="16" t="s">
-        <v>74</v>
+      <c r="A57" s="15" t="s">
+        <v>110</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="4"/>
+      <c r="E57" s="12"/>
     </row>
     <row r="58" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="A58" s="16" t="s">
-        <v>62</v>
+      <c r="A58" s="15" t="s">
+        <v>111</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
-      <c r="E58" s="4"/>
+      <c r="E58" s="12"/>
     </row>
     <row r="59" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="A59" s="16" t="s">
-        <v>75</v>
+      <c r="A59" s="15" t="s">
+        <v>112</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
-      <c r="E59" s="4"/>
+      <c r="E59" s="12"/>
     </row>
     <row r="60" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="A60" s="16"/>
+      <c r="A60" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
-      <c r="E60" s="4"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A61" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B61" s="17"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
+      <c r="E60" s="12"/>
+    </row>
+    <row r="61" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="12"/>
     </row>
     <row r="62" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="A62" s="16" t="s">
-        <v>83</v>
+      <c r="A62" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
-      <c r="E62" s="4"/>
+      <c r="E62" s="12"/>
     </row>
     <row r="63" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="A63" s="16" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
-      <c r="E63" s="4"/>
+      <c r="E63" s="12"/>
     </row>
     <row r="64" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="A64" s="16" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="4"/>
     </row>
-    <row r="65" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="A65" s="16" t="s">
-        <v>77</v>
-      </c>
+    <row r="65" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A65" s="16"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="4"/>
     </row>
-    <row r="66" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="A66" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="4"/>
-    </row>
-    <row r="67" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="A67" s="16"/>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A66" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+    </row>
+    <row r="67" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A67" s="16" t="s">
+        <v>71</v>
+      </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="4"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A68" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B68" s="17"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="17"/>
-    </row>
-    <row r="69" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A68" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="4"/>
+    </row>
+    <row r="69" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="A69" s="16" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="4"/>
     </row>
-    <row r="70" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="A70" s="16" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="4"/>
     </row>
-    <row r="71" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="A71" s="15"/>
+    <row r="71" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A71" s="16" t="s">
+        <v>74</v>
+      </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="4"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A72" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B72" s="18"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
-    </row>
-    <row r="73" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="A73" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B73" s="3">
-        <v>45310</v>
-      </c>
-      <c r="C73" s="3">
-        <v>45310</v>
-      </c>
-      <c r="D73" s="3">
-        <v>45310</v>
-      </c>
-      <c r="E73" s="12">
-        <v>1</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="A74" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B74" s="3">
-        <v>45310</v>
-      </c>
-      <c r="C74" s="3">
-        <v>45310</v>
-      </c>
-      <c r="D74" s="3">
-        <v>45310</v>
-      </c>
-      <c r="E74" s="12">
-        <v>1</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A72" s="16"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="4"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A73" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+    </row>
+    <row r="74" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A74" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="4"/>
+    </row>
+    <row r="75" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A75" s="16" t="s">
+        <v>78</v>
+      </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A76" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B76" s="18"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="18"/>
-    </row>
-    <row r="77" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="A77" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B77" s="3">
-        <v>45310</v>
-      </c>
-      <c r="C77" s="3">
-        <v>45310</v>
-      </c>
-      <c r="D77" s="3">
-        <v>45310</v>
-      </c>
-      <c r="E77" s="12">
-        <v>1</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="A78" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B78" s="3">
-        <v>45310</v>
-      </c>
-      <c r="C78" s="3">
-        <v>45310</v>
-      </c>
-      <c r="D78" s="3">
-        <v>45315</v>
-      </c>
-      <c r="E78" s="12">
-        <v>1</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="A79" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B79" s="3">
-        <v>45310</v>
-      </c>
-      <c r="C79" s="3">
-        <v>45310</v>
-      </c>
-      <c r="D79" s="3">
-        <v>45319</v>
-      </c>
-      <c r="E79" s="12">
-        <v>1</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="A80" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B80" s="3">
-        <v>45319</v>
-      </c>
-      <c r="C80" s="3">
-        <v>45319</v>
-      </c>
-      <c r="D80" s="3"/>
-      <c r="E80" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="A81" s="1" t="s">
-        <v>34</v>
+      <c r="E75" s="4"/>
+    </row>
+    <row r="76" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A76" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="4"/>
+    </row>
+    <row r="77" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A77" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="4"/>
+    </row>
+    <row r="78" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A78" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="4"/>
+    </row>
+    <row r="79" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A79" s="16"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="4"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A80" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+    </row>
+    <row r="81" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A81" s="16" t="s">
+        <v>83</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
-      <c r="F81" s="1" t="s">
+      <c r="E81" s="4"/>
+    </row>
+    <row r="82" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A82" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="4"/>
+    </row>
+    <row r="83" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A83" s="15"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="4"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A84" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84" s="23"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="23"/>
+    </row>
+    <row r="85" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="3">
+        <v>45310</v>
+      </c>
+      <c r="C85" s="3">
+        <v>45310</v>
+      </c>
+      <c r="D85" s="3">
+        <v>45310</v>
+      </c>
+      <c r="E85" s="12">
+        <v>1</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A86" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B86" s="3">
+        <v>45310</v>
+      </c>
+      <c r="C86" s="3">
+        <v>45310</v>
+      </c>
+      <c r="D86" s="3">
+        <v>45310</v>
+      </c>
+      <c r="E86" s="12">
+        <v>1</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A88" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" s="23"/>
+      <c r="C88" s="23"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="23"/>
+    </row>
+    <row r="89" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A89" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B89" s="3">
+        <v>45310</v>
+      </c>
+      <c r="C89" s="3">
+        <v>45310</v>
+      </c>
+      <c r="D89" s="3">
+        <v>45310</v>
+      </c>
+      <c r="E89" s="12">
+        <v>1</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A90" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B90" s="3">
+        <v>45310</v>
+      </c>
+      <c r="C90" s="3">
+        <v>45310</v>
+      </c>
+      <c r="D90" s="3">
+        <v>45315</v>
+      </c>
+      <c r="E90" s="12">
+        <v>1</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A91" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B91" s="3">
+        <v>45310</v>
+      </c>
+      <c r="C91" s="3">
+        <v>45310</v>
+      </c>
+      <c r="D91" s="3">
+        <v>45319</v>
+      </c>
+      <c r="E91" s="12">
+        <v>1</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A92" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B92" s="3">
+        <v>45319</v>
+      </c>
+      <c r="C92" s="3">
+        <v>45319</v>
+      </c>
+      <c r="D92" s="3"/>
+      <c r="E92" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="82" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5"/>
-    <row r="83" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.5"/>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A84" s="18" t="s">
+    <row r="93" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5">
+      <c r="A93" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="F93" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5"/>
+    <row r="95" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.5"/>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A96" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B84" s="18"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="18"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A85" s="1" t="s">
+      <c r="B96" s="23"/>
+      <c r="C96" s="23"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="23"/>
+      <c r="F96" s="23"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A97" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A86" s="1" t="s">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A98" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A90" s="18" t="s">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A102" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B90" s="18"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="18"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A91" s="1" t="s">
+      <c r="B102" s="23"/>
+      <c r="C102" s="23"/>
+      <c r="D102" s="23"/>
+      <c r="E102" s="23"/>
+      <c r="F102" s="23"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A103" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A95" s="18" t="s">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A107" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B95" s="18"/>
-      <c r="C95" s="18"/>
-      <c r="D95" s="18"/>
-      <c r="E95" s="18"/>
-      <c r="F95" s="18"/>
+      <c r="B107" s="23"/>
+      <c r="C107" s="23"/>
+      <c r="D107" s="23"/>
+      <c r="E107" s="23"/>
+      <c r="F107" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A88:F88"/>
     <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A66:F66"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="A76:F76"/>
   </mergeCells>
   <conditionalFormatting sqref="E5:E10">
     <cfRule type="dataBar" priority="31">
@@ -2122,7 +2255,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
+  <conditionalFormatting sqref="E13">
     <cfRule type="dataBar" priority="35">
       <dataBar>
         <cfvo type="min"/>
@@ -2136,7 +2269,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
+  <conditionalFormatting sqref="E14">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
@@ -2150,7 +2283,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
+  <conditionalFormatting sqref="E15">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
@@ -2164,7 +2297,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E15:E20">
+  <conditionalFormatting sqref="E16:E21">
     <cfRule type="dataBar" priority="39">
       <dataBar>
         <cfvo type="min"/>
@@ -2178,7 +2311,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22:E25">
+  <conditionalFormatting sqref="E23:E29">
     <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
@@ -2192,7 +2325,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E27:E28">
+  <conditionalFormatting sqref="E12">
     <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
@@ -2206,7 +2339,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
+  <conditionalFormatting sqref="E30">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="min"/>
@@ -2216,62 +2349,6 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{A9F23484-3C8B-4BEC-966D-EEADB136B5DB}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41:E45 E35:E39">
-    <cfRule type="dataBar" priority="25">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="9" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1A46510E-FF34-4195-87D6-BBE0A2B37AB1}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49:E51">
-    <cfRule type="dataBar" priority="29">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="9" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{82734EEA-B87A-4FF1-9956-9080B14DC5CE}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73:E74">
-    <cfRule type="dataBar" priority="20">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="9" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{93C2CD4F-E211-4020-8A49-CE519DE6D3A5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77:E80">
-    <cfRule type="dataBar" priority="19">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="9" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ED4AC874-0797-42DC-A415-F5B009497082}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2286,6 +2363,62 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{5090FFE8-A0D9-48D6-BED4-E1DCDE51A8CF}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35:E39 E41:E46">
+    <cfRule type="dataBar" priority="25">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1A46510E-FF34-4195-87D6-BBE0A2B37AB1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50:E63">
+    <cfRule type="dataBar" priority="29">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{82734EEA-B87A-4FF1-9956-9080B14DC5CE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85:E86">
+    <cfRule type="dataBar" priority="20">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{93C2CD4F-E211-4020-8A49-CE519DE6D3A5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89:E92">
+    <cfRule type="dataBar" priority="19">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ED4AC874-0797-42DC-A415-F5B009497082}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2317,7 +2450,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E12</xm:sqref>
+          <xm:sqref>E13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E3763A2B-133C-4ED1-9AAD-35C77E0C3AA1}">
@@ -2328,7 +2461,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E13</xm:sqref>
+          <xm:sqref>E14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DFDBA5A7-5D63-4E55-A587-936DEA7D1444}">
@@ -2339,7 +2472,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E14</xm:sqref>
+          <xm:sqref>E15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{97C4EE4D-8600-4593-966D-1F6695917CF7}">
@@ -2350,7 +2483,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E15:E20</xm:sqref>
+          <xm:sqref>E16:E21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D187F4B5-8CC2-4616-8B98-E5271F293241}">
@@ -2361,7 +2494,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E22:E25</xm:sqref>
+          <xm:sqref>E23:E29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{32CE492C-A26A-429A-8C6C-3896C6B9CA32}">
@@ -2372,7 +2505,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E27:E28</xm:sqref>
+          <xm:sqref>E12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A9F23484-3C8B-4BEC-966D-EEADB136B5DB}">
@@ -2383,51 +2516,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E29</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1A46510E-FF34-4195-87D6-BBE0A2B37AB1}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E41:E45 E35:E39</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{82734EEA-B87A-4FF1-9956-9080B14DC5CE}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E49:E51</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{93C2CD4F-E211-4020-8A49-CE519DE6D3A5}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E73:E74</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ED4AC874-0797-42DC-A415-F5B009497082}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E77:E80</xm:sqref>
+          <xm:sqref>E30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5090FFE8-A0D9-48D6-BED4-E1DCDE51A8CF}">
@@ -2439,6 +2528,50 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>E40</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1A46510E-FF34-4195-87D6-BBE0A2B37AB1}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E35:E39 E41:E46</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{82734EEA-B87A-4FF1-9956-9080B14DC5CE}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E50:E63</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{93C2CD4F-E211-4020-8A49-CE519DE6D3A5}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E85:E86</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{ED4AC874-0797-42DC-A415-F5B009497082}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E89:E92</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2539,7 +2672,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>26</v>
@@ -2554,7 +2687,7 @@
         <v>27</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
